--- a/20年数模校赛/data.xlsx
+++ b/20年数模校赛/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program_file\Python-File\20年数模校赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91ECE96-6AC0-4853-BBA6-317E3470B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41947103-7C41-4E26-B9C4-1171170D9BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,16 @@
     <sheet name="订单1" sheetId="3" r:id="rId3"/>
     <sheet name="订单2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -682,7 +688,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1037,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578C2310-5E7F-4AF4-9221-61CC2FDC6F1E}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1055,7 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1057,15 +1063,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:B5)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1089,15 +1102,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>SUM(B6:B11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1121,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1137,15 +1157,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>SUM(B12:B15)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1153,7 +1180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1161,12 +1188,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/20年数模校赛/data.xlsx
+++ b/20年数模校赛/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program_file\Python-File\20年数模校赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41947103-7C41-4E26-B9C4-1171170D9BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94675B5-2794-4090-81B3-6E7122D02480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092B745-1F21-4BB5-885A-85812690FDB7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
     <col min="4" max="4" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -726,8 +726,12 @@
       <c r="D2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>B2*C2*D2</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -740,8 +744,12 @@
       <c r="D3" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E24" si="0">B3*C3*D3</f>
+        <v>2099.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -754,8 +762,12 @@
       <c r="D4" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -768,8 +780,12 @@
       <c r="D5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>B5*C5*D5</f>
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -782,8 +798,12 @@
       <c r="D6" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3567.2999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -796,8 +816,12 @@
       <c r="D7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>B7*C7*D7</f>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -810,8 +834,12 @@
       <c r="D8" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3562.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -824,8 +852,12 @@
       <c r="D9" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4037.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -838,8 +870,12 @@
       <c r="D10" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5053.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -852,8 +888,12 @@
       <c r="D11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -866,8 +906,12 @@
       <c r="D12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -880,8 +924,12 @@
       <c r="D13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -894,8 +942,12 @@
       <c r="D14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -908,8 +960,12 @@
       <c r="D15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -922,8 +978,12 @@
       <c r="D16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -936,8 +996,12 @@
       <c r="D17" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -950,8 +1014,12 @@
       <c r="D18" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -964,8 +1032,12 @@
       <c r="D19" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -978,8 +1050,12 @@
       <c r="D20" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -992,8 +1068,12 @@
       <c r="D21" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1006,8 +1086,12 @@
       <c r="D22" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1020,8 +1104,12 @@
       <c r="D23" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1033,11 +1121,16 @@
       </c>
       <c r="D24" s="1">
         <v>11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>15840</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
